--- a/data/nl_orgs_openaire_datasources_with_endpoint_metrics.xlsx
+++ b/data/nl_orgs_openaire_datasources_with_endpoint_metrics.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.026542+00:00</t>
+          <t>2026-02-26T14:28:16.049430+00:00</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.867252+00:00</t>
+          <t>2026-02-26T14:28:16.004045+00:00</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664386+00:00</t>
+          <t>2026-02-26T14:28:15.802494+00:00</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664775+00:00</t>
+          <t>2026-02-26T14:28:15.802894+00:00</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664253+00:00</t>
+          <t>2026-02-26T14:28:15.802342+00:00</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664122+00:00</t>
+          <t>2026-02-26T14:28:15.802761+00:00</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.855396+00:00</t>
+          <t>2026-02-26T14:28:16.036888+00:00</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664643+00:00</t>
+          <t>2026-02-26T14:28:15.802629+00:00</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.663948+00:00</t>
+          <t>2026-02-26T14:28:15.802184+00:00</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.892805+00:00</t>
+          <t>2026-02-26T14:28:16.036562+00:00</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.664514+00:00</t>
+          <t>2026-02-26T14:28:15.802010+00:00</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.885153+00:00</t>
+          <t>2026-02-26T14:28:16.005021+00:00</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.665546+00:00</t>
+          <t>2026-02-26T14:28:15.818705+00:00</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.867409+00:00</t>
+          <t>2026-02-26T14:28:16.059753+00:00</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.855730+00:00</t>
+          <t>2026-02-26T14:28:16.004576+00:00</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.855875+00:00</t>
+          <t>2026-02-26T14:28:16.004747+00:00</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.856006+00:00</t>
+          <t>2026-02-26T14:28:16.004877+00:00</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.047848+00:00</t>
+          <t>2026-02-26T14:28:16.266612+00:00</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.051124+00:00</t>
+          <t>2026-02-26T14:28:16.246026+00:00</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.867546+00:00</t>
+          <t>2026-02-26T14:28:16.036747+00:00</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.000234+00:00</t>
+          <t>2026-02-26T14:28:16.321676+00:00</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.885295+00:00</t>
+          <t>2026-02-26T14:28:16.037020+00:00</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.094578+00:00</t>
+          <t>2026-02-26T14:28:16.264798+00:00</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.892948+00:00</t>
+          <t>2026-02-26T14:28:16.049594+00:00</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:18.893073+00:00</t>
+          <t>2026-02-26T14:28:16.049728+00:00</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.093477+00:00</t>
+          <t>2026-02-26T14:28:16.337233+00:00</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.000583+00:00</t>
+          <t>2026-02-26T14:28:16.059900+00:00</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.000715+00:00</t>
+          <t>2026-02-26T14:28:16.060032+00:00</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.593031+00:00</t>
+          <t>2026-02-26T14:28:16.688337+00:00</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.332783+00:00</t>
+          <t>2026-02-26T14:28:16.627933+00:00</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.339937+00:00</t>
+          <t>2026-02-26T14:28:16.628329+00:00</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.335697+00:00</t>
+          <t>2026-02-26T14:28:16.523617+00:00</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.458743+00:00</t>
+          <t>2026-02-26T14:28:16.664771+00:00</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.514925+00:00</t>
+          <t>2026-02-26T14:28:16.730119+00:00</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.645978+00:00</t>
+          <t>2026-02-26T14:28:16.754461+00:00</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.671155+00:00</t>
+          <t>2026-02-26T14:28:16.821246+00:00</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.340090+00:00</t>
+          <t>2026-02-26T14:28:16.628482+00:00</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.726104+00:00</t>
+          <t>2026-02-26T14:28:17.438470+00:00</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.632475+00:00</t>
+          <t>2026-02-26T14:28:17.053654+00:00</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.515249+00:00</t>
+          <t>2026-02-26T14:28:16.688501+00:00</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.515378+00:00</t>
+          <t>2026-02-26T14:28:16.688637+00:00</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.297358+00:00</t>
+          <t>2026-02-26T14:28:17.433266+00:00</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.593198+00:00</t>
+          <t>2026-02-26T14:28:16.730539+00:00</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.300088+00:00</t>
+          <t>2026-02-26T14:28:17.432969+00:00</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.049007+00:00</t>
+          <t>2026-02-26T14:28:17.241156+00:00</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.660548+00:00</t>
+          <t>2026-02-26T14:28:16.837273+00:00</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.809435+00:00</t>
+          <t>2026-02-26T14:28:17.017901+00:00</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.907273+00:00</t>
+          <t>2026-02-26T14:28:17.190743+00:00</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.726274+00:00</t>
+          <t>2026-02-26T14:28:17.053823+00:00</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.726404+00:00</t>
+          <t>2026-02-26T14:28:17.053962+00:00</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.726533+00:00</t>
+          <t>2026-02-26T14:28:17.054097+00:00</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -4512,18 +4512,18 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>https://repository.ubn.ru.nl/oai/openaire: HTTPSConnectionPool(host='repository.ubn.ru.nl', port=443): Read timed out. (read timeout=25)</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>mets, oai_dc</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:45.089068+00:00</t>
+          <t>2026-02-26T14:28:24.087417+00:00</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.809814+00:00</t>
+          <t>2026-02-26T14:28:17.191156+00:00</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.809961+00:00</t>
+          <t>2026-02-26T14:28:17.191298+00:00</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.810093+00:00</t>
+          <t>2026-02-26T14:28:17.191442+00:00</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.810227+00:00</t>
+          <t>2026-02-26T14:28:17.191577+00:00</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.904678+00:00</t>
+          <t>2026-02-26T14:28:17.373179+00:00</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.904841+00:00</t>
+          <t>2026-02-26T14:28:17.241321+00:00</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.904969+00:00</t>
+          <t>2026-02-26T14:28:17.241508+00:00</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.905097+00:00</t>
+          <t>2026-02-26T14:28:17.241650+00:00</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:19.905223+00:00</t>
+          <t>2026-02-26T14:28:17.241802+00:00</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.060329+00:00</t>
+          <t>2026-02-26T14:28:17.517522+00:00</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.076238+00:00</t>
+          <t>2026-02-26T14:28:17.542355+00:00</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.049362+00:00</t>
+          <t>2026-02-26T14:28:17.433133+00:00</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.153174+00:00</t>
+          <t>2026-02-26T14:28:17.674656+00:00</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.060473+00:00</t>
+          <t>2026-02-26T14:28:17.433403+00:00</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.060610+00:00</t>
+          <t>2026-02-26T14:28:17.433548+00:00</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.060737+00:00</t>
+          <t>2026-02-26T14:28:17.433683+00:00</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.432660+00:00</t>
+          <t>2026-02-26T14:28:17.836085+00:00</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.231356+00:00</t>
+          <t>2026-02-26T14:28:17.636461+00:00</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.153482+00:00</t>
+          <t>2026-02-26T14:28:17.517918+00:00</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.153624+00:00</t>
+          <t>2026-02-26T14:28:17.518058+00:00</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.153773+00:00</t>
+          <t>2026-02-26T14:28:17.518193+00:00</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.153919+00:00</t>
+          <t>2026-02-26T14:28:17.518360+00:00</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154054+00:00</t>
+          <t>2026-02-26T14:28:17.518508+00:00</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154188+00:00</t>
+          <t>2026-02-26T14:28:17.518642+00:00</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154357+00:00</t>
+          <t>2026-02-26T14:28:17.518776+00:00</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6471,7 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154489+00:00</t>
+          <t>2026-02-26T14:28:17.518906+00:00</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154618+00:00</t>
+          <t>2026-02-26T14:28:17.519040+00:00</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154745+00:00</t>
+          <t>2026-02-26T14:28:17.519172+00:00</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.154882+00:00</t>
+          <t>2026-02-26T14:28:17.519307+00:00</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.155010+00:00</t>
+          <t>2026-02-26T14:28:17.519450+00:00</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.155137+00:00</t>
+          <t>2026-02-26T14:28:17.519583+00:00</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.155263+00:00</t>
+          <t>2026-02-26T14:28:17.519714+00:00</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.155388+00:00</t>
+          <t>2026-02-26T14:28:17.519847+00:00</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.155516+00:00</t>
+          <t>2026-02-26T14:28:17.519981+00:00</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.214965+00:00</t>
+          <t>2026-02-26T14:28:17.639044+00:00</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215126+00:00</t>
+          <t>2026-02-26T14:28:17.542511+00:00</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215254+00:00</t>
+          <t>2026-02-26T14:28:17.542641+00:00</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215379+00:00</t>
+          <t>2026-02-26T14:28:17.542767+00:00</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215506+00:00</t>
+          <t>2026-02-26T14:28:17.542892+00:00</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215629+00:00</t>
+          <t>2026-02-26T14:28:17.543017+00:00</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215758+00:00</t>
+          <t>2026-02-26T14:28:17.543141+00:00</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.215891+00:00</t>
+          <t>2026-02-26T14:28:17.543267+00:00</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.216016+00:00</t>
+          <t>2026-02-26T14:28:17.543397+00:00</t>
         </is>
       </c>
     </row>
@@ -7807,7 +7807,7 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.216140+00:00</t>
+          <t>2026-02-26T14:28:17.543551+00:00</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.216265+00:00</t>
+          <t>2026-02-26T14:28:17.543684+00:00</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.216389+00:00</t>
+          <t>2026-02-26T14:28:17.543811+00:00</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.375591+00:00</t>
+          <t>2026-02-26T14:28:17.712932+00:00</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.231496+00:00</t>
+          <t>2026-02-26T14:28:17.636826+00:00</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.231623+00:00</t>
+          <t>2026-02-26T14:28:17.636968+00:00</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.231748+00:00</t>
+          <t>2026-02-26T14:28:17.637103+00:00</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.231888+00:00</t>
+          <t>2026-02-26T14:28:17.637236+00:00</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.232013+00:00</t>
+          <t>2026-02-26T14:28:17.637404+00:00</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.399840+00:00</t>
+          <t>2026-02-26T14:28:17.872331+00:00</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.375921+00:00</t>
+          <t>2026-02-26T14:28:17.639185+00:00</t>
         </is>
       </c>
     </row>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.628388+00:00</t>
+          <t>2026-02-26T14:28:17.948324+00:00</t>
         </is>
       </c>
     </row>
@@ -8707,7 +8707,7 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.399985+00:00</t>
+          <t>2026-02-26T14:28:17.674807+00:00</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.652895+00:00</t>
+          <t>2026-02-26T14:28:17.964881+00:00</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.432834+00:00</t>
+          <t>2026-02-26T14:28:17.713091+00:00</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.591734+00:00</t>
+          <t>2026-02-26T14:28:17.883983+00:00</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.591917+00:00</t>
+          <t>2026-02-26T14:28:17.836499+00:00</t>
         </is>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.592042+00:00</t>
+          <t>2026-02-26T14:28:17.836637+00:00</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.695557+00:00</t>
+          <t>2026-02-26T14:28:17.915597+00:00</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.756515+00:00</t>
+          <t>2026-02-26T14:28:18.014670+00:00</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.653062+00:00</t>
+          <t>2026-02-26T14:28:17.884142+00:00</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.653196+00:00</t>
+          <t>2026-02-26T14:28:17.884278+00:00</t>
         </is>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.770629+00:00</t>
+          <t>2026-02-26T14:28:18.050402+00:00</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.767674+00:00</t>
+          <t>2026-02-26T14:28:18.008387+00:00</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.860128+00:00</t>
+          <t>2026-02-26T14:28:18.193090+00:00</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.004060+00:00</t>
+          <t>2026-02-26T14:28:18.232077+00:00</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.770971+00:00</t>
+          <t>2026-02-26T14:28:18.008772+00:00</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.958539+00:00</t>
+          <t>2026-02-26T14:28:18.206976+00:00</t>
         </is>
       </c>
     </row>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:20.986850+00:00</t>
+          <t>2026-02-26T14:28:18.255977+00:00</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.103935+00:00</t>
+          <t>2026-02-26T14:28:18.249405+00:00</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.132876+00:00</t>
+          <t>2026-02-26T14:28:18.449587+00:00</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.086279+00:00</t>
+          <t>2026-02-26T14:28:18.290493+00:00</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.086425+00:00</t>
+          <t>2026-02-26T14:28:18.232250+00:00</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.086717+00:00</t>
+          <t>2026-02-26T14:28:18.232386+00:00</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.086856+00:00</t>
+          <t>2026-02-26T14:28:18.232532+00:00</t>
         </is>
       </c>
     </row>
@@ -10465,7 +10465,7 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.086980+00:00</t>
+          <t>2026-02-26T14:28:18.232875+00:00</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.087104+00:00</t>
+          <t>2026-02-26T14:28:18.233014+00:00</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.248921+00:00</t>
+          <t>2026-02-26T14:28:18.476083+00:00</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.104118+00:00</t>
+          <t>2026-02-26T14:28:18.249569+00:00</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.104255+00:00</t>
+          <t>2026-02-26T14:28:18.249697+00:00</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.251478+00:00</t>
+          <t>2026-02-26T14:28:18.452993+00:00</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.133021+00:00</t>
+          <t>2026-02-26T14:28:18.256128+00:00</t>
         </is>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.288809+00:00</t>
+          <t>2026-02-26T14:28:18.482167+00:00</t>
         </is>
       </c>
     </row>
@@ -11069,7 +11069,7 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.249218+00:00</t>
+          <t>2026-02-26T14:28:18.290648+00:00</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.249349+00:00</t>
+          <t>2026-02-26T14:28:18.290779+00:00</t>
         </is>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.249474+00:00</t>
+          <t>2026-02-26T14:28:18.290906+00:00</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.249600+00:00</t>
+          <t>2026-02-26T14:28:18.291034+00:00</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.564343+00:00</t>
+          <t>2026-02-26T14:28:18.582468+00:00</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.523604+00:00</t>
+          <t>2026-02-26T14:28:18.716244+00:00</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11525,7 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.288953+00:00</t>
+          <t>2026-02-26T14:28:18.453140+00:00</t>
         </is>
       </c>
     </row>
@@ -11599,7 +11599,7 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.289080+00:00</t>
+          <t>2026-02-26T14:28:18.453269+00:00</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.467483+00:00</t>
+          <t>2026-02-26T14:28:18.674367+00:00</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.297501+00:00</t>
+          <t>2026-02-26T14:28:18.476238+00:00</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.509298+00:00</t>
+          <t>2026-02-26T14:28:18.695647+00:00</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.515682+00:00</t>
+          <t>2026-02-26T14:28:18.681516+00:00</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.467872+00:00</t>
+          <t>2026-02-26T14:28:18.582837+00:00</t>
         </is>
       </c>
     </row>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.614371+00:00</t>
+          <t>2026-02-26T14:28:18.726433+00:00</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.713350+00:00</t>
+          <t>2026-02-26T14:28:18.865115+00:00</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.693419+00:00</t>
+          <t>2026-02-26T14:28:18.830871+00:00</t>
         </is>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.870101+00:00</t>
+          <t>2026-02-26T14:28:18.932726+00:00</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.564489+00:00</t>
+          <t>2026-02-26T14:28:18.716389+00:00</t>
         </is>
       </c>
     </row>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.867155+00:00</t>
+          <t>2026-02-26T14:28:18.950701+00:00</t>
         </is>
       </c>
     </row>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="P159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q159" t="b">
         <v>0</v>
@@ -12516,18 +12516,18 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr">
-        <is>
-          <t>oai_dc</t>
-        </is>
-      </c>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>http://nvl006.nivel.nl/oai/oai.ashx: HTTPConnectionPool(host='nvl006.nivel.nl', port=80): Max retries exceeded with url: /oai/oai.ashx?verb=ListMetadataFormats (Caused by NameResolutionError("HTTPConnection(host='nvl006.nivel.nl', port=80): Failed to resolve 'nvl006.nivel.nl' ([Errno -2] Name or service not known)")); https://nvl006.nivel.nl/oai/oai.ashx: HTTPSConnectionPool(host='nvl006.nivel.nl', port=443): Max retries exceeded with url: /oai/oai.ashx?verb=ListMetadataFormats (Caused by NameResolutionError("HTTPSConnection(host='nvl006.nivel.nl', port=443): Failed to resolve 'nvl006.nivel.nl' ([Errno -2] Name or service not known)"))</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.969953+00:00</t>
+          <t>2026-02-26T14:28:18.749211+00:00</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.787817+00:00</t>
+          <t>2026-02-26T14:28:18.892174+00:00</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.713516+00:00</t>
+          <t>2026-02-26T14:28:18.831022+00:00</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.872188+00:00</t>
+          <t>2026-02-26T14:28:19.034644+00:00</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.787978+00:00</t>
+          <t>2026-02-26T14:28:18.865269+00:00</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:22.074507+00:00</t>
+          <t>2026-02-26T14:28:19.094886+00:00</t>
         </is>
       </c>
     </row>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:22.186511+00:00</t>
+          <t>2026-02-26T14:28:19.053830+00:00</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13061,7 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.870297+00:00</t>
+          <t>2026-02-26T14:28:18.932884+00:00</t>
         </is>
       </c>
     </row>
@@ -13139,7 +13139,7 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.952704+00:00</t>
+          <t>2026-02-26T14:28:19.112681+00:00</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:22.132483+00:00</t>
+          <t>2026-02-26T14:28:19.201054+00:00</t>
         </is>
       </c>
     </row>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:22.451815+00:00</t>
+          <t>2026-02-26T14:28:19.210593+00:00</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:21.970282+00:00</t>
+          <t>2026-02-26T14:28:19.053979+00:00</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>2026-01-23T11:23:22.131129+00:00</t>
+          <t>2026-02-26T14:28:19.204951+00:00</t>
         </is>
       </c>
     </row>
